--- a/Recipe_343/example.xlsx
+++ b/Recipe_343/example.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="mySheet" sheetId="2" r:id="rId2"/>
+    <x:sheet name="mysheet" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
